--- a/Source/SolarB9Calculator.xlsx
+++ b/Source/SolarB9Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9183AD0-99DB-4503-98DA-25F8F6298305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FD9DAA-D3C7-4839-9C33-87405715D36E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19820" yWindow="790" windowWidth="13400" windowHeight="8250" xr2:uid="{D5A9AF25-73EC-4939-9A24-ACA76483AC78}"/>
+    <workbookView xWindow="-16245" yWindow="1995" windowWidth="15660" windowHeight="12945" xr2:uid="{D5A9AF25-73EC-4939-9A24-ACA76483AC78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -234,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -561,10 +568,10 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2258,7 +2265,7 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C36">
@@ -2309,7 +2316,7 @@
       <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C37">
@@ -2360,7 +2367,7 @@
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C38">
@@ -2411,7 +2418,7 @@
       <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C39">
@@ -2462,7 +2469,7 @@
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C40">
@@ -2505,7 +2512,7 @@
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C41">
@@ -2548,7 +2555,7 @@
       <c r="A42">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C42">

--- a/Source/SolarB9Calculator.xlsx
+++ b/Source/SolarB9Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FD9DAA-D3C7-4839-9C33-87405715D36E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA37C1A3-4972-4EB0-9FE6-043B3F574709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16245" yWindow="1995" windowWidth="15660" windowHeight="12945" xr2:uid="{D5A9AF25-73EC-4939-9A24-ACA76483AC78}"/>
+    <workbookView xWindow="-20880" yWindow="810" windowWidth="17115" windowHeight="10395" xr2:uid="{D5A9AF25-73EC-4939-9A24-ACA76483AC78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,10 +246,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -571,7 +571,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,24 +580,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -2265,7 +2265,7 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C36">
@@ -2316,7 +2316,7 @@
       <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C37">
@@ -2367,7 +2367,7 @@
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C38">
@@ -2418,7 +2418,7 @@
       <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C39">
@@ -2469,7 +2469,7 @@
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C40">
@@ -2512,7 +2512,7 @@
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C41">
@@ -2555,7 +2555,7 @@
       <c r="A42">
         <v>8</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C42">
